--- a/Module2/Assignment/Worksheet 2 - Immune Cell Type.xlsx
+++ b/Module2/Assignment/Worksheet 2 - Immune Cell Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvesgreatti/github/Immunoengineering/Module2/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{786D58DD-296C-4048-82AC-7A32253D68F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBF13D3-E0AB-E44D-8A86-62C2C63EE556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29240" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell summary sheet blank" sheetId="4" r:id="rId1"/>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>How</t>
-  </si>
-  <si>
-    <t>Nuetrophils</t>
   </si>
   <si>
     <t>Dendritic Cells</t>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>5. If you do not want to fill in the excel sheet, please write each major category with functions in bullet point below.</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,7 +433,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,22 +459,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1332,86 +1332,86 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="14" width="20.625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="35" x14ac:dyDescent="1.4">
+    <row r="1" spans="1:14" ht="35" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23" x14ac:dyDescent="1">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="23" x14ac:dyDescent="1">
+    <row r="4" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="22.75" x14ac:dyDescent="0.95">
-      <c r="A5" s="29" t="s">
+    <row r="6" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="22.75" x14ac:dyDescent="0.95">
-      <c r="A6" s="29" t="s">
+    <row r="7" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="22.75" x14ac:dyDescent="0.95">
-      <c r="A7" s="29" t="s">
+    <row r="8" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="22.75" x14ac:dyDescent="0.95">
-      <c r="A8" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30.25" x14ac:dyDescent="1">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
       <c r="N11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.8"/>
-    <row r="13" spans="1:14" s="6" customFormat="1" ht="39.25" thickBot="1" x14ac:dyDescent="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:14" s="6" customFormat="1" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1449,33 +1449,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A14" s="31" t="s">
-        <v>29</v>
+    <row r="14" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="35" t="s">
         <v>22</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>23</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="71.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:14" ht="71.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1491,7 +1491,7 @@
       <c r="M15" s="20"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="32"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1500,20 +1500,20 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="F17" s="32" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -1523,7 +1523,7 @@
       <c r="M17" s="20"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="32"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1537,7 +1537,7 @@
       <c r="M18" s="20"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1551,27 +1551,27 @@
       <c r="M19" s="21"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="33"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="14"/>
-      <c r="F20" s="34" t="s">
-        <v>12</v>
+      <c r="F20" s="30" t="s">
+        <v>11</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="14"/>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="30" t="s">
         <v>6</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A21" s="34" t="s">
-        <v>19</v>
+    <row r="21" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="30" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1585,7 +1585,7 @@
       <c r="M21" s="20"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="32"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1599,7 +1599,7 @@
       <c r="M22" s="20"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="32"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1613,7 +1613,7 @@
       <c r="M23" s="20"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="32"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1627,7 +1627,7 @@
       <c r="M24" s="21"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="33"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -1636,22 +1636,22 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="14"/>
-      <c r="K25" s="34" t="s">
-        <v>13</v>
+      <c r="K25" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A26" s="34" t="s">
-        <v>20</v>
+    <row r="26" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="14"/>
-      <c r="F26" s="34" t="s">
-        <v>14</v>
+      <c r="F26" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
@@ -1661,7 +1661,7 @@
       <c r="M26" s="20"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="32"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1675,7 +1675,7 @@
       <c r="M27" s="20"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="32"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1689,26 +1689,26 @@
       <c r="M28" s="21"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
-      <c r="F29" s="34" t="s">
-        <v>18</v>
+      <c r="F29" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="14"/>
-      <c r="K29" s="34" t="s">
-        <v>17</v>
+      <c r="K29" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="31"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
@@ -1721,8 +1721,8 @@
       <c r="M30" s="20"/>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="F31" s="35"/>
+    <row r="31" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="31"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="8"/>
@@ -1731,57 +1731,50 @@
       <c r="M31" s="21"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="K32" s="34" t="s">
-        <v>24</v>
+    <row r="32" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K33" s="32"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
       <c r="N33" s="14"/>
     </row>
-    <row r="34" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
       <c r="N34" s="14"/>
     </row>
-    <row r="35" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K35" s="33"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
       <c r="N35" s="14"/>
     </row>
-    <row r="36" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="K36" s="34" t="s">
-        <v>21</v>
+    <row r="36" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K36" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="11:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="K37" s="35"/>
+    <row r="37" spans="11:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="31"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="11:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.65"/>
-    <row r="39" spans="11:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="38" spans="11:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="11:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K35"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="K11:M11"/>
@@ -1792,6 +1785,13 @@
     <mergeCell ref="F20:F25"/>
     <mergeCell ref="K20:K24"/>
     <mergeCell ref="A21:A25"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K35"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Module2/Assignment/Worksheet 2 - Immune Cell Type.xlsx
+++ b/Module2/Assignment/Worksheet 2 - Immune Cell Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvesgreatti/github/Immunoengineering/Module2/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBF13D3-E0AB-E44D-8A86-62C2C63EE556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB4D97E-E592-1844-89C0-F661366CED8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29240" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="640" windowWidth="33080" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell summary sheet blank" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>Immune Cell</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Instructions:</t>
-  </si>
-  <si>
-    <t>Eat foreign objects/pathogens</t>
   </si>
   <si>
     <t>When activated secretes cytokines and chemokines</t>
@@ -170,6 +167,184 @@
   </si>
   <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Produce antibodies</t>
+  </si>
+  <si>
+    <t>With or without the help of T cells (CD40L on helper T cell bind to CD40 proteins on B cells)</t>
+  </si>
+  <si>
+    <t>Identification of antigens</t>
+  </si>
+  <si>
+    <t>B cells's receptors (BCRs) recognize its cognate antigen</t>
+  </si>
+  <si>
+    <t>Proliferation</t>
+  </si>
+  <si>
+    <t>Activation by T-cells or antigen independent of BCR (mithogen)</t>
+  </si>
+  <si>
+    <t>Class switching</t>
+  </si>
+  <si>
+    <t>B cell can change the class of antibody it produces</t>
+  </si>
+  <si>
+    <t>Mutation</t>
+  </si>
+  <si>
+    <t>Somatic hypermutation</t>
+  </si>
+  <si>
+    <t>Genes of the BCR can mutate to increase the affinity of BCR</t>
+  </si>
+  <si>
+    <t>B cell can become a plasma B cell or a memory B cell</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>B cells cam prime CD4+ T cells, or reduce T-cell immune response (Bregs)</t>
+  </si>
+  <si>
+    <t>T cell proliferation</t>
+  </si>
+  <si>
+    <t>Th1 cells produce Interleukin 2 (IL2). IL2 stimulates CD8+ T cell division and cytoxicity.</t>
+  </si>
+  <si>
+    <t>Macrophage activation to kill intracellular pathogens</t>
+  </si>
+  <si>
+    <t>Interferon Ɣ from th1 activates macrophages to kill intracellular pathogens</t>
+  </si>
+  <si>
+    <t>Antigen recognition</t>
+  </si>
+  <si>
+    <t>CD4+ cells rcognize antigen presented with MHC class II</t>
+  </si>
+  <si>
+    <t>Promotes antibody production</t>
+  </si>
+  <si>
+    <t>Support B cell division and maturation</t>
+  </si>
+  <si>
+    <t>Bridge between innate and adaptive immne responses</t>
+  </si>
+  <si>
+    <t>Antigen recognised by the surface IgM of the B cell is internalised and rexepressed on the MHC class II molecule of the B cell which, in turn is identified by a T cell. Further interactions happen with the binding of CD40 on B cells with CD40 ligand on T cells</t>
+  </si>
+  <si>
+    <t>Th2 produces IL4, IL5, IL6 and IL13. IL-5, for example, encourages B cells to produce IgA antibodies</t>
+  </si>
+  <si>
+    <t>Collect antigens</t>
+  </si>
+  <si>
+    <t>Antigenes are loaded on class II MHC molecules at the surface of the DC</t>
+  </si>
+  <si>
+    <t>Function as antigen presenting</t>
+  </si>
+  <si>
+    <t>Marines</t>
+  </si>
+  <si>
+    <t>Phagocytosis</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>co-stimulatory signals</t>
+  </si>
+  <si>
+    <t>DCS provide co-stimulatory signals through the interaction of surface molecules such as CD80/CD86 (on DCs) with CD28 (on T cells)</t>
+  </si>
+  <si>
+    <t>Differentiation of Th0 cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFN-gamma, along with IL-12, encourages Th0 cells to differentiate into Th1 cells
+IL-4 directs the differentiation of Th0 cells into Th2 cell
+IL-6 and TGF-Beta can induce the differentiation of Th0 into Th17 cells
+TGF-Beta can also promote the differentiation into Treg
+</t>
+  </si>
+  <si>
+    <t>Migration</t>
+  </si>
+  <si>
+    <t>DC can influence the localization of the immune response by presenting antigens and activating T cells in specific lymph nodes</t>
+  </si>
+  <si>
+    <t>DC  are imprinted with the special characteristics of an antigen presenting cells (APC) , the DC travels to a lymph node and produce IL-12 to a naïve  helper T cell which become a helper T cell producing Th1 cytokines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microbes are coated with proteins of the complement system and recognized by specific complement receptors on macrophages </t>
+  </si>
+  <si>
+    <t>Microbes are coated with proteins of the complement system and recognized by specific complement receptors on neutrophils. Dying neutrophils release neutrophil extracellular traps (NETs) which can trap or kill bacteria, viruses, fungi or parasites.</t>
+  </si>
+  <si>
+    <t>foot soldier</t>
+  </si>
+  <si>
+    <t>Alert immune system cells</t>
+  </si>
+  <si>
+    <t>They produce different cytokines</t>
+  </si>
+  <si>
+    <t>Destroy virus-infected cells, bacteria, parasites, and fungi</t>
+  </si>
+  <si>
+    <t>NK cells use perforing proteins to deliver "suicide" enzymes; such as granzyme B, into a target cell. On other cases, Fas ligand on the NK cell surface interacts with a Fas protein on the surface of the target cell.</t>
+  </si>
+  <si>
+    <t>Production of cytokines</t>
+  </si>
+  <si>
+    <t>NK cells produce cytokines, such as IFN-gamma which can activate macrophages, and enhance anitgen presentation</t>
+  </si>
+  <si>
+    <t>Cell recognition</t>
+  </si>
+  <si>
+    <t>NK cells are equipped with inhibitor and activating receptors to allow them to distinguish between healthy cells and cells not expressing low  levels of  class I MHC molecules</t>
+  </si>
+  <si>
+    <t>CD8+ T cells recognize antigens presented by class I MHC molecules on the target cell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytoxic activity </t>
+  </si>
+  <si>
+    <t>Produce variaous cytokiens; such as IFN-gamma and TNF-alpha which can have direct antiviral effects and can activate macrophages or NK cells.</t>
+  </si>
+  <si>
+    <t>Memory Formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ T cells can develop into memory T cells </t>
+  </si>
+  <si>
+    <t>Regulation of Immune response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immune monitoirng </t>
+  </si>
+  <si>
+    <t>They interact with class I MHC molecules on the surface of APCs and target cells.</t>
+  </si>
+  <si>
+    <t>Through their cytotoxic activity, CD8+ T cells play a role in the magnitude and duration of the immune response</t>
   </si>
 </sst>
 </file>
@@ -382,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -427,9 +602,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -455,27 +627,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,16 +715,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>423182</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066649</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>364066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>999066</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>496453</xdr:rowOff>
+      <xdr:rowOff>479519</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -535,8 +752,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2032907" y="4876800"/>
-          <a:ext cx="1529443" cy="815975"/>
+          <a:off x="1066649" y="7188199"/>
+          <a:ext cx="1541084" cy="809720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -557,14 +774,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885266</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1376333</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>361389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333377</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>418043</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>264867</xdr:rowOff>
     </xdr:to>
@@ -594,8 +811,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2494991" y="11886639"/>
-          <a:ext cx="638736" cy="603997"/>
+          <a:off x="1376333" y="14128189"/>
+          <a:ext cx="650377" cy="597745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,15 +834,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>799541</xdr:colOff>
+      <xdr:colOff>240741</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>418539</xdr:rowOff>
+      <xdr:rowOff>384672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247652</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>891118</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>335727</xdr:rowOff>
+      <xdr:rowOff>301860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -653,8 +870,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2409266" y="7648014"/>
-          <a:ext cx="638736" cy="605584"/>
+          <a:off x="1849408" y="9985872"/>
+          <a:ext cx="650377" cy="611455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -677,14 +894,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>833437</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>194829</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>398030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -734,16 +951,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>817562</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>356657</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>500061</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>59795</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>262803</xdr:rowOff>
+      <xdr:rowOff>296669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -771,8 +988,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8620124" y="2722562"/>
-          <a:ext cx="1452562" cy="1193799"/>
+          <a:off x="10652124" y="4568295"/>
+          <a:ext cx="1464204" cy="1163974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -793,16 +1010,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>357186</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1760537</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>678919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>361513</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>963613</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>683247</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -830,8 +1047,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9024937" y="4852986"/>
-          <a:ext cx="952500" cy="704849"/>
+          <a:off x="12056004" y="6808786"/>
+          <a:ext cx="964142" cy="698594"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -852,16 +1069,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>438149</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1475315</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>404282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>442477</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>678391</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>408611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -889,8 +1106,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9010649" y="11210924"/>
-          <a:ext cx="952500" cy="704849"/>
+          <a:off x="11770782" y="12782549"/>
+          <a:ext cx="964142" cy="698595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -911,16 +1128,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333373</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>547685</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248706</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>446085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>738187</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>461818</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>94721</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>360219</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -948,8 +1165,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8715373" y="7186610"/>
-          <a:ext cx="1595439" cy="1296989"/>
+          <a:off x="10544173" y="10741552"/>
+          <a:ext cx="1607081" cy="1302667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1332,18 +1549,20 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="14" width="20.6640625" customWidth="1"/>
@@ -1360,52 +1579,52 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="6" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+    <row r="7" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+    <row r="8" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,331 +1669,455 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
-        <v>28</v>
+      <c r="A14" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="F14" s="35" t="s">
+      <c r="C14" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="35" t="s">
+      <c r="I14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="71.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27" t="s">
+      <c r="C15" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="C16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="41"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="F17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="14"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="C17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="41"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="14"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="C18" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="41"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="C19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="14"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="14"/>
-      <c r="F20" s="30" t="s">
+      <c r="C20" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="14"/>
-      <c r="K20" s="30" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="14"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="14"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="C21" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="41"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="14"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="C22" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="41"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="14"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="C23" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="41"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="14"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+      <c r="C24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="42"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="C25" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="20"/>
       <c r="I25" s="14"/>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
       <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="43" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="14"/>
-      <c r="F26" s="30" t="s">
+      <c r="C26" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="14"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="41"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
       <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="14"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
+      <c r="C27" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="41"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="14"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="C28" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="42"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="42"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="F29" s="30" t="s">
+      <c r="C29" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="14"/>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="C30" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="14"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="31"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="8"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K32" s="30" t="s">
+      <c r="K32" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
       <c r="N32" s="14"/>
     </row>
     <row r="33" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K33" s="32"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
       <c r="N33" s="14"/>
     </row>
     <row r="34" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K34" s="32"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K35" s="33"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
       <c r="N35" s="14"/>
     </row>
     <row r="36" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K36" s="30" t="s">
+      <c r="K36" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
       <c r="N36" s="14"/>
     </row>
     <row r="37" spans="11:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K37" s="31"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="23"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="22"/>
     </row>
     <row r="38" spans="11:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="11:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K35"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="K11:M11"/>
@@ -1785,13 +2128,6 @@
     <mergeCell ref="F20:F25"/>
     <mergeCell ref="K20:K24"/>
     <mergeCell ref="A21:A25"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K35"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Module2/Assignment/Worksheet 2 - Immune Cell Type.xlsx
+++ b/Module2/Assignment/Worksheet 2 - Immune Cell Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvesgreatti/github/Immunoengineering/Module2/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB4D97E-E592-1844-89C0-F661366CED8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1626D0AC-E8F7-344E-BB57-64BA755CD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="640" windowWidth="33080" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3060" yWindow="9060" windowWidth="38900" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell summary sheet blank" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="150">
   <si>
     <t>Immune Cell</t>
   </si>
@@ -299,9 +299,6 @@
     <t>Alert immune system cells</t>
   </si>
   <si>
-    <t>They produce different cytokines</t>
-  </si>
-  <si>
     <t>Destroy virus-infected cells, bacteria, parasites, and fungi</t>
   </si>
   <si>
@@ -345,13 +342,201 @@
   </si>
   <si>
     <t>Through their cytotoxic activity, CD8+ T cells play a role in the magnitude and duration of the immune response</t>
+  </si>
+  <si>
+    <t>Display antigen to B cells</t>
+  </si>
+  <si>
+    <t>Follicular DCs capture opsonized antigens and display these antigens to B cells to be activated. The follicle become a center of B cell proliferation.</t>
+  </si>
+  <si>
+    <t>FDCs release factord, such as profiferation-inducing ligand (APRIL) or B-cell activating factor (BAFF) which co-stimulate B cells.</t>
+  </si>
+  <si>
+    <t>B cell activation</t>
+  </si>
+  <si>
+    <t>Formation of germinal centers (GCs)</t>
+  </si>
+  <si>
+    <t>FDCs play a critical role in the formation and maintenance of GCs where B cells expand, mature and differentaite into plasma cells.</t>
+  </si>
+  <si>
+    <t>Acts a barrier</t>
+  </si>
+  <si>
+    <t>The skin has tigth epithelial cells which protect naturally against external pathoegems and if they enter the body , a sticky mucus captures them and cleams them out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduces UV radiation </t>
+  </si>
+  <si>
+    <t>Helps in detecting infection</t>
+  </si>
+  <si>
+    <t>Helps regulate temperatur</t>
+  </si>
+  <si>
+    <t>Prevents loss of moisture</t>
+  </si>
+  <si>
+    <t>Several skin receptors detect touch, pressure, vibrational changes, pain and temperature changes</t>
+  </si>
+  <si>
+    <t>Skin particiopates in thermal regulation by conserving or releasing heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The skin maintains the body's water and homeostatic balance (tight cell junctions, sebaceous glands, sweat glands, moisturinzing factors) </t>
+  </si>
+  <si>
+    <t>Keratinocytes, the predominant cells in the epidermis; express Tool-like receptors (TLRs) which are pattern-recognition receptors (PRRs) triggering an infrlammatory response</t>
+  </si>
+  <si>
+    <t>UV rays activate melanin in the skin which absorbs the UV rays</t>
+  </si>
+  <si>
+    <t>Certain complement proteins , such as C3a and C5b stimulate the recruitment of immune cells like macrophages</t>
+  </si>
+  <si>
+    <t>membrane attack complex</t>
+  </si>
+  <si>
+    <t>Chemoattractants</t>
+  </si>
+  <si>
+    <t>Certain complement proteins (c3b, C5b, C6, C7, C8) can form MAC on the surface of a bacterium that opens up a hole in the surface of the pathogen</t>
+  </si>
+  <si>
+    <t>Enhancement of adaptive immune system</t>
+  </si>
+  <si>
+    <t>Complement activation can increase antibody-dependent cellular cytoxicity (ADCC) and complement dependent cytoxicity (DCC)</t>
+  </si>
+  <si>
+    <t>Clearance of immune complexes</t>
+  </si>
+  <si>
+    <t>Complement protein assist in the clearnace of antigen-antibody complexes in tissues, apoptotic cells and cellular debris by opsonizing them</t>
+  </si>
+  <si>
+    <t>Stimulation of B cells</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Complement </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activaition via CR1/2/CD19/TAPA-1 can participate to the costimulation of B cells enhancing clonal expansion and germinal center formation</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognition of class of invaders</t>
+  </si>
+  <si>
+    <t>TLRs are pattern-recognition recptors designed tp recognize microbial attacks; among them TLR4 is used by macropages to sense the presence of lipopolysaccharide (LPS); TL7 detects single-stranded RNA of viruses whereas TLR9 recognized double-stranded DNA of bacteria and simple viruses</t>
+  </si>
+  <si>
+    <t>Activation of immune responses</t>
+  </si>
+  <si>
+    <t>TLRs initiate a signaling cascade that leads to the activation of immune responses.</t>
+  </si>
+  <si>
+    <t>Cytokine production</t>
+  </si>
+  <si>
+    <t>TLR signaling can induce the productionof cytokines such as IL-12 and TNF-alpha in DCs; recruiting immune cells to the site of  infection and activate them</t>
+  </si>
+  <si>
+    <t>Enhanced antige-presentation</t>
+  </si>
+  <si>
+    <t>The recognition of invading microbes by TLRS enhance antigen presentation to naïve T cells.</t>
+  </si>
+  <si>
+    <t>neutralisation</t>
+  </si>
+  <si>
+    <t>Antibody-dependent cellular cytotoxicity (ADCC)</t>
+  </si>
+  <si>
+    <t>Complement-mediated lysis of pathogens or infected cells</t>
+  </si>
+  <si>
+    <t>Acts as a sensory organ</t>
+  </si>
+  <si>
+    <t>Antibodies recognize specific antigens (IgG antibodies). The Fc regionof the bound antibodies interact with Fc receptors on the surface of the NK cells. This activation primes the NL cells for cytotoxic activity.</t>
+  </si>
+  <si>
+    <t>IgM antibodies can neutralize viruses by binding to them preventing them from infecting cells.</t>
+  </si>
+  <si>
+    <t>Complement mediated can cause the lysis of bacterial cells through the formation of a menbrane Attack Complex (MAC) which makes holes in the targeted cells, causing its deaths</t>
+  </si>
+  <si>
+    <t>filtering of foreign substances and pathogens: T and B cells, and antigen-presenting cells (APCs) are present within lymph nodes to detect anitgens</t>
+  </si>
+  <si>
+    <t>Immune monitoring</t>
+  </si>
+  <si>
+    <t>Memory T or B cells are generated within lymph nodes</t>
+  </si>
+  <si>
+    <t>Production of memory cells</t>
+  </si>
+  <si>
+    <t>Activation of B or T cells</t>
+  </si>
+  <si>
+    <t>These lymphocytes can become activated in lymph nodes</t>
+  </si>
+  <si>
+    <t>Immune response coordination</t>
+  </si>
+  <si>
+    <t>Lymph nodes are hubs where various immune cells communicate and coordinate to build the immune response</t>
+  </si>
+  <si>
+    <t>Drainig the lymph from the tissues</t>
+  </si>
+  <si>
+    <t>The lymphatic system drains the lymph from the body tissues and returns it to the blood system preventing tissue swelling</t>
+  </si>
+  <si>
+    <t>Transport of immune cells</t>
+  </si>
+  <si>
+    <t>Dendrictic ells leave the tissues and travel through the lymphatic system to the nearest lymph node to activate naïve T cells. Lemphatic vessesl transport immune cells and APCs between lymph nodes and tissues.</t>
+  </si>
+  <si>
+    <t>Anigen processing</t>
+  </si>
+  <si>
+    <t>Once DCs have captured antigens, they break them down into smaller fragments, exposing many facettes of the antigens. The fragments are them presented to T cells with MCh molecules.</t>
+  </si>
+  <si>
+    <t>They produce different cytokines, chemokines, and other substances to recruit other immune cells, and promote inflammatory process.</t>
+  </si>
+  <si>
+    <t>Clearance of cellular debirs</t>
+  </si>
+  <si>
+    <t>Neutrophils can phagocytose and clear cellular debris, including dead cells.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +583,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -557,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -584,15 +775,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -612,9 +797,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -661,6 +843,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -679,20 +867,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,16 +1390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>394853</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>614985</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>93949</xdr:rowOff>
+      <xdr:rowOff>178615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>799667</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>461000</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
+      <xdr:rowOff>98520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1224,8 +1427,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8794171" y="12320585"/>
-          <a:ext cx="1599769" cy="1305360"/>
+          <a:off x="10910452" y="14639682"/>
+          <a:ext cx="1607081" cy="1308438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1550,7 +1753,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1565,7 +1768,8 @@
     <col min="9" max="9" width="70.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="85.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35" x14ac:dyDescent="0.35">
@@ -1579,52 +1783,52 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
       <c r="N11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1669,443 +1873,560 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="12"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="71.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="30" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="34" t="s">
+      <c r="F15" s="40"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="14"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" s="50" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="41"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="30" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="35" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="14"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="30" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="14"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="50" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="41"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="30" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="48" t="s">
+      <c r="F18" s="40"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="14"/>
+      <c r="I18" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="40"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="50" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="41"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="30" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="14"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="14"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="41"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="50" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="42"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="32" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="30" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="43" t="s">
+      <c r="K20" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="14"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="N20" s="50" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="33" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="38" t="s">
+      <c r="F21" s="40"/>
+      <c r="G21" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="14"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="50" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="41"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="30" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="30" t="s">
+      <c r="F22" s="40"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="14"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="50" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="41"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="30" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="30" t="s">
+      <c r="F23" s="40"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="27" t="s">
         <v>67</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="14"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="N23" s="50" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="30" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="30" t="s">
+      <c r="F24" s="40"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="14"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="N24" s="50" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="42"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="32" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="20"/>
-      <c r="I25" s="14"/>
-      <c r="K25" s="43" t="s">
+      <c r="F25" s="41"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="14"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="N25" s="47" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="33" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="40"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="40"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="45" t="s">
+      <c r="F27" s="40"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="14"/>
-    </row>
-    <row r="27" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="46" t="s">
+      <c r="I27" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="K27" s="40"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="40"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="45" t="s">
+      <c r="D28" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="14"/>
-    </row>
-    <row r="28" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="41"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="45" t="s">
+      <c r="I28" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="41"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="N28" s="50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="40"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="N29" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="14"/>
-    </row>
-    <row r="29" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="41"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="31" t="s">
+      <c r="D30" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="14"/>
-      <c r="K29" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="14"/>
-    </row>
-    <row r="30" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="14"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="14"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="N30" s="50" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="44"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="8"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="14"/>
+      <c r="H31" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="41"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" s="50" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K32" s="43" t="s">
+      <c r="K32" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="14"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="N32" s="46" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="33" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K33" s="41"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="14"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="N33" s="50" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="34" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K34" s="41"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="14"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="N34" s="50" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="35" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K35" s="42"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="14"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="N35" s="50" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="36" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K36" s="43" t="s">
+      <c r="K36" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="14"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="N36" s="50" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="37" spans="11:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K37" s="44"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="22"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="N37" s="53" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="38" spans="11:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="11:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Module2/Assignment/Worksheet 2 - Immune Cell Type.xlsx
+++ b/Module2/Assignment/Worksheet 2 - Immune Cell Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvesgreatti/github/Immunoengineering/Module2/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1626D0AC-E8F7-344E-BB57-64BA755CD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD11135-F569-8745-B815-ED3DE0DB5513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3060" yWindow="9060" windowWidth="38900" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell summary sheet blank" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="149">
   <si>
     <t>Immune Cell</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Promotes antibody production</t>
   </si>
   <si>
-    <t>Support B cell division and maturation</t>
-  </si>
-  <si>
     <t>Bridge between innate and adaptive immne responses</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
   </si>
   <si>
     <t>government</t>
-  </si>
-  <si>
-    <t>co-stimulatory signals</t>
   </si>
   <si>
     <t>DCS provide co-stimulatory signals through the interaction of surface molecules such as CD80/CD86 (on DCs) with CD28 (on T cells)</t>
@@ -350,9 +344,6 @@
     <t>Follicular DCs capture opsonized antigens and display these antigens to B cells to be activated. The follicle become a center of B cell proliferation.</t>
   </si>
   <si>
-    <t>FDCs release factord, such as profiferation-inducing ligand (APRIL) or B-cell activating factor (BAFF) which co-stimulate B cells.</t>
-  </si>
-  <si>
     <t>B cell activation</t>
   </si>
   <si>
@@ -365,9 +356,6 @@
     <t>Acts a barrier</t>
   </si>
   <si>
-    <t>The skin has tigth epithelial cells which protect naturally against external pathoegems and if they enter the body , a sticky mucus captures them and cleams them out</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reduces UV radiation </t>
   </si>
   <si>
@@ -386,9 +374,6 @@
     <t>Skin particiopates in thermal regulation by conserving or releasing heat</t>
   </si>
   <si>
-    <t xml:space="preserve">The skin maintains the body's water and homeostatic balance (tight cell junctions, sebaceous glands, sweat glands, moisturinzing factors) </t>
-  </si>
-  <si>
     <t>Keratinocytes, the predominant cells in the epidermis; express Tool-like receptors (TLRs) which are pattern-recognition receptors (PRRs) triggering an infrlammatory response</t>
   </si>
   <si>
@@ -398,9 +383,6 @@
     <t>Certain complement proteins , such as C3a and C5b stimulate the recruitment of immune cells like macrophages</t>
   </si>
   <si>
-    <t>membrane attack complex</t>
-  </si>
-  <si>
     <t>Chemoattractants</t>
   </si>
   <si>
@@ -410,9 +392,6 @@
     <t>Enhancement of adaptive immune system</t>
   </si>
   <si>
-    <t>Complement activation can increase antibody-dependent cellular cytoxicity (ADCC) and complement dependent cytoxicity (DCC)</t>
-  </si>
-  <si>
     <t>Clearance of immune complexes</t>
   </si>
   <si>
@@ -422,26 +401,9 @@
     <t>Stimulation of B cells</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Complement </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>activaition via CR1/2/CD19/TAPA-1 can participate to the costimulation of B cells enhancing clonal expansion and germinal center formation</t>
-    </r>
-  </si>
-  <si>
     <t>Recognition of class of invaders</t>
   </si>
   <si>
-    <t>TLRs are pattern-recognition recptors designed tp recognize microbial attacks; among them TLR4 is used by macropages to sense the presence of lipopolysaccharide (LPS); TL7 detects single-stranded RNA of viruses whereas TLR9 recognized double-stranded DNA of bacteria and simple viruses</t>
-  </si>
-  <si>
     <t>Activation of immune responses</t>
   </si>
   <si>
@@ -451,18 +413,12 @@
     <t>Cytokine production</t>
   </si>
   <si>
-    <t>TLR signaling can induce the productionof cytokines such as IL-12 and TNF-alpha in DCs; recruiting immune cells to the site of  infection and activate them</t>
-  </si>
-  <si>
     <t>Enhanced antige-presentation</t>
   </si>
   <si>
     <t>The recognition of invading microbes by TLRS enhance antigen presentation to naïve T cells.</t>
   </si>
   <si>
-    <t>neutralisation</t>
-  </si>
-  <si>
     <t>Antibody-dependent cellular cytotoxicity (ADCC)</t>
   </si>
   <si>
@@ -472,18 +428,9 @@
     <t>Acts as a sensory organ</t>
   </si>
   <si>
-    <t>Antibodies recognize specific antigens (IgG antibodies). The Fc regionof the bound antibodies interact with Fc receptors on the surface of the NK cells. This activation primes the NL cells for cytotoxic activity.</t>
-  </si>
-  <si>
     <t>IgM antibodies can neutralize viruses by binding to them preventing them from infecting cells.</t>
   </si>
   <si>
-    <t>Complement mediated can cause the lysis of bacterial cells through the formation of a menbrane Attack Complex (MAC) which makes holes in the targeted cells, causing its deaths</t>
-  </si>
-  <si>
-    <t>filtering of foreign substances and pathogens: T and B cells, and antigen-presenting cells (APCs) are present within lymph nodes to detect anitgens</t>
-  </si>
-  <si>
     <t>Immune monitoring</t>
   </si>
   <si>
@@ -514,15 +461,9 @@
     <t>Transport of immune cells</t>
   </si>
   <si>
-    <t>Dendrictic ells leave the tissues and travel through the lymphatic system to the nearest lymph node to activate naïve T cells. Lemphatic vessesl transport immune cells and APCs between lymph nodes and tissues.</t>
-  </si>
-  <si>
     <t>Anigen processing</t>
   </si>
   <si>
-    <t>Once DCs have captured antigens, they break them down into smaller fragments, exposing many facettes of the antigens. The fragments are them presented to T cells with MCh molecules.</t>
-  </si>
-  <si>
     <t>They produce different cytokines, chemokines, and other substances to recruit other immune cells, and promote inflammatory process.</t>
   </si>
   <si>
@@ -530,13 +471,58 @@
   </si>
   <si>
     <t>Neutrophils can phagocytose and clear cellular debris, including dead cells.</t>
+  </si>
+  <si>
+    <t>TLRs are pattern-recognition receptors designed to recognize microbial attacks; among them TLR4 is used by macropages to sense the presence of lipopolysaccharide (LPS); TLR7 detects single-stranded RNA of viruses whereas TLR9 recognized double-stranded DNA of bacteria and simple viruses</t>
+  </si>
+  <si>
+    <t>Once DCs have captured antigens, they break them down into smaller fragments, exposing many facettes of the antigens. The fragments are them presented to T cells with MCH molecules.</t>
+  </si>
+  <si>
+    <t>FDCs release factors, such as profiferation-inducing ligand (APRIL) or B-cell activating factor (BAFF) which co-stimulate B cells.</t>
+  </si>
+  <si>
+    <t>The skin has tigth epithelial cells which protect naturally against external pathogens and if they enter the body , a sticky mucus captures them and clears them out</t>
+  </si>
+  <si>
+    <t>Co-stimulatory signals</t>
+  </si>
+  <si>
+    <t>Membrane attack complex</t>
+  </si>
+  <si>
+    <t>Neutralisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The skin maintains the body's water and homeostatic balance (using tight cell junctions, sebaceous glands, sweat glands, moisturinzing factors) </t>
+  </si>
+  <si>
+    <t>Complement activation can increase antibody-dependent cellular cytotoxicity (ADCC) and complement dependent cytotoxicity (DCC)</t>
+  </si>
+  <si>
+    <t>Complement activation via CR1/2/CD19/TAPA-1 can participate to the costimulation of B cells enhancing clonal expansion and germinal center formation</t>
+  </si>
+  <si>
+    <t>TLR signaling can induce the production of cytokines such as IL-12 and TNF-alpha in DCs; recruiting immune cells to the site of  infection and activate them</t>
+  </si>
+  <si>
+    <t>Antibodies recognize specific antigens (IgG antibodies). The Fc region of the bound antibodies interact with Fc receptors on the surface of the NK cells. This activation primes the NL cells for cytotoxic activity.</t>
+  </si>
+  <si>
+    <t>Complement mediated can cause the lysis of bacterial cells through the formation of a menbrane attack Complex (MAC) which makes holes in the targeted cell, causing its deaths.</t>
+  </si>
+  <si>
+    <t>Filtering of foreign substances and pathogens: T and B cells, and antigen-presenting cells (APCs) are present within lymph nodes to detect antigens</t>
+  </si>
+  <si>
+    <t>Dendrictic cells leave the tissues and travel through the lymphatic system to the nearest lymph node to activate naïve T cells. Lymphatic vessels transport immune cells and APCs between lymph nodes and tissues.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,12 +572,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -601,7 +581,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -670,17 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -694,17 +663,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -732,11 +690,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -748,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -766,9 +726,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -778,10 +735,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -793,49 +750,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -843,11 +767,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -855,46 +785,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1752,8 +1664,8 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1761,74 +1673,74 @@
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="70.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" customWidth="1"/>
-    <col min="14" max="14" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="87" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:14" ht="25" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
       <c r="N11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1873,572 +1785,565 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="44" t="s">
+      <c r="L14" s="15"/>
+      <c r="M14" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="71.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="26"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="26"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="26"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="N14" s="45" t="s">
+      <c r="N18" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="26"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="30" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="71.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="46" t="s">
+      <c r="N19" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="26"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="26"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="26"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="26"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="26"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="26"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="27"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="26"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="26"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="26"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="26"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="27"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="26"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="25"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" s="27"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N31" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="16"/>
+      <c r="M32" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K33" s="26"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="N33" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K34" s="26"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N34" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K35" s="27"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K36" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="16"/>
+      <c r="M36" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="N36" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="11:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="25"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="N15" s="50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="N16" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="N17" s="50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="N18" s="50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="49" t="s">
+      <c r="N37" s="37" t="s">
         <v>148</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="N19" s="50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="N20" s="50" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="N21" s="50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="N22" s="50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="N23" s="50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="N24" s="50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="41"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="N25" s="47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" s="40"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="N26" s="50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="N27" s="50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="41"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="N28" s="50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="40"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="N29" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="K30" s="40"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="N30" s="50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="43"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31" s="41"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" s="50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K32" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="N32" s="46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K33" s="40"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="N33" s="50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K34" s="40"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="N34" s="50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K35" s="41"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="N35" s="50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K36" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="N36" s="50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="11:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K37" s="43"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="N37" s="53" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="38" spans="11:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="11:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K35"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="K11:M11"/>
@@ -2449,6 +2354,13 @@
     <mergeCell ref="F20:F25"/>
     <mergeCell ref="K20:K24"/>
     <mergeCell ref="A21:A25"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K35"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Module2/Assignment/Worksheet 2 - Immune Cell Type.xlsx
+++ b/Module2/Assignment/Worksheet 2 - Immune Cell Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvesgreatti/github/Immunoengineering/Module2/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD11135-F569-8745-B815-ED3DE0DB5513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D928EE-929C-9E4D-832D-ABBF3C380801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell summary sheet blank" sheetId="4" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>Regulatory</t>
   </si>
   <si>
-    <t>B cells cam prime CD4+ T cells, or reduce T-cell immune response (Bregs)</t>
-  </si>
-  <si>
     <t>T cell proliferation</t>
   </si>
   <si>
@@ -516,6 +513,9 @@
   </si>
   <si>
     <t>Dendrictic cells leave the tissues and travel through the lymphatic system to the nearest lymph node to activate naïve T cells. Lymphatic vessels transport immune cells and APCs between lymph nodes and tissues.</t>
+  </si>
+  <si>
+    <t>B cells cam prime CD4+ T cells, or reduce T-cell immune response (Tregs)</t>
   </si>
 </sst>
 </file>
@@ -767,47 +767,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1664,8 +1664,8 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:N37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="172" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1720,27 +1720,27 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="25" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1785,565 +1785,572 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="33" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="33" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="15"/>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="71.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="N16" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="35"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="35"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="34"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="24" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="71.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="30" t="s">
+      <c r="I22" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="34"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="34"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="34"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="35"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="34"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="34"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="34"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="35"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="34"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="N29" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="N15" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="30" t="s">
+    </row>
+    <row r="30" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="34"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="37"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="26"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="26"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="26"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="N25" s="34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="K26" s="26"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="26"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="N29" s="30" t="s">
+      <c r="I31" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" s="35"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="16"/>
+      <c r="M32" s="24" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="N30" s="30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="25"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="K31" s="27"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="N31" s="30" t="s">
+      <c r="N32" s="24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K32" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="16"/>
-      <c r="M32" s="30" t="s">
+    <row r="33" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K33" s="34"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="N32" s="30" t="s">
+    </row>
+    <row r="34" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K34" s="34"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K35" s="35"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="16"/>
+      <c r="M36" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="11:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="37"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="N37" s="31" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K33" s="26"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="N33" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K34" s="26"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="N34" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K35" s="27"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N35" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K36" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="N36" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="11:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K37" s="25"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="N37" s="37" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="38" spans="11:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="11:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K35"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="K11:M11"/>
@@ -2354,13 +2361,6 @@
     <mergeCell ref="F20:F25"/>
     <mergeCell ref="K20:K24"/>
     <mergeCell ref="A21:A25"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K35"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Module2/Assignment/Worksheet 2 - Immune Cell Type.xlsx
+++ b/Module2/Assignment/Worksheet 2 - Immune Cell Type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvesgreatti/github/Immunoengineering/Module2/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D928EE-929C-9E4D-832D-ABBF3C380801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBEDE56-9193-164A-BDB9-453B9A31D691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="152">
   <si>
     <t>Immune Cell</t>
   </si>
@@ -516,6 +516,15 @@
   </si>
   <si>
     <t>B cells cam prime CD4+ T cells, or reduce T-cell immune response (Tregs)</t>
+  </si>
+  <si>
+    <t>spies</t>
+  </si>
+  <si>
+    <t>missiles</t>
+  </si>
+  <si>
+    <t>CIA</t>
   </si>
 </sst>
 </file>
@@ -708,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -791,22 +800,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1664,8 +1676,8 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="172" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1720,27 +1732,27 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="25" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
       <c r="N11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1785,7 +1797,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="10"/>
@@ -1795,7 +1807,7 @@
       <c r="D14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="37" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="22" t="s">
@@ -1807,7 +1819,7 @@
       <c r="I14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="37" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="15"/>
@@ -1963,17 +1975,19 @@
       <c r="D20" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="38" t="s">
+        <v>149</v>
+      </c>
       <c r="H20" s="24" t="s">
         <v>57</v>
       </c>
       <c r="I20" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="32" t="s">
         <v>6</v>
       </c>
       <c r="L20" s="16"/>
@@ -1985,10 +1999,12 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="C21" s="24" t="s">
         <v>90</v>
       </c>
@@ -1996,9 +2012,6 @@
         <v>55</v>
       </c>
       <c r="F21" s="34"/>
-      <c r="G21" s="23" t="s">
-        <v>62</v>
-      </c>
       <c r="H21" s="24" t="s">
         <v>54</v>
       </c>
@@ -2109,7 +2122,7 @@
       <c r="I25" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="32" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="16"/>
@@ -2121,7 +2134,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="13"/>
@@ -2131,10 +2144,12 @@
       <c r="D26" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="38" t="s">
+        <v>151</v>
+      </c>
       <c r="H26" s="24" t="s">
         <v>73</v>
       </c>
@@ -2211,7 +2226,7 @@
       <c r="D29" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="32" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="16"/>
@@ -2221,10 +2236,12 @@
       <c r="I29" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="16"/>
+      <c r="L29" s="38" t="s">
+        <v>150</v>
+      </c>
       <c r="M29" s="24" t="s">
         <v>139</v>
       </c>
@@ -2233,7 +2250,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="14"/>
       <c r="C30" s="24" t="s">
         <v>84</v>
@@ -2259,7 +2276,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="37"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="2"/>
       <c r="H31" s="24" t="s">
         <v>91</v>
@@ -2277,7 +2294,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="32" t="s">
         <v>23</v>
       </c>
       <c r="L32" s="16"/>
@@ -2319,7 +2336,7 @@
       </c>
     </row>
     <row r="36" spans="11:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K36" s="36" t="s">
+      <c r="K36" s="32" t="s">
         <v>20</v>
       </c>
       <c r="L36" s="16"/>
@@ -2331,7 +2348,7 @@
       </c>
     </row>
     <row r="37" spans="11:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K37" s="37"/>
+      <c r="K37" s="33"/>
       <c r="L37" s="18"/>
       <c r="M37" s="30" t="s">
         <v>128</v>
@@ -2344,13 +2361,6 @@
     <row r="39" spans="11:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K35"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="K11:M11"/>
@@ -2361,6 +2371,13 @@
     <mergeCell ref="F20:F25"/>
     <mergeCell ref="K20:K24"/>
     <mergeCell ref="A21:A25"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K35"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
